--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="20" sheetId="3" r:id="rId3"/>
     <sheet name="01" sheetId="4" r:id="rId4"/>
     <sheet name="02" sheetId="6" r:id="rId5"/>
+    <sheet name="q00" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>loss A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,8 +126,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -164,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -182,6 +185,7 @@
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -198,6 +202,7 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1722,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1998,6 +2003,300 @@
       <c r="G13">
         <f>STDEV(G2:G11)</f>
         <v>2.6571153976141168E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.45090000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.41370000000000001</v>
+      </c>
+      <c r="E2">
+        <v>4402</v>
+      </c>
+      <c r="F2">
+        <v>3464</v>
+      </c>
+      <c r="G2">
+        <f>((1-C2)*E2 + (1-D2)*F2)/(E2+F2)</f>
+        <v>0.56548199847444702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="E3">
+        <v>4119</v>
+      </c>
+      <c r="F3">
+        <v>4248</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">((1-C3)*E3 + (1-D3)*F3)/(E3+F3)</f>
+        <v>0.5660260666905701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="E4">
+        <v>3583</v>
+      </c>
+      <c r="F4">
+        <v>4164</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.53467009164837997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>210</v>
+      </c>
+      <c r="C5">
+        <v>0.44469999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="E5">
+        <v>3769</v>
+      </c>
+      <c r="F5">
+        <v>3689</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.54357711182622692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.41</v>
+      </c>
+      <c r="E6">
+        <v>4302</v>
+      </c>
+      <c r="F6">
+        <v>3776</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.60869277048774451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>210</v>
+      </c>
+      <c r="C7">
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="E7">
+        <v>4301</v>
+      </c>
+      <c r="F7">
+        <v>3427</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.53842797619047622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>0.4718</v>
+      </c>
+      <c r="D8">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="E8">
+        <v>4476</v>
+      </c>
+      <c r="F8">
+        <v>3651</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.51301557770394968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="E9">
+        <v>4014</v>
+      </c>
+      <c r="F9">
+        <v>4335</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.57636298957959031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="E10">
+        <v>4020</v>
+      </c>
+      <c r="F10">
+        <v>3824</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.54356690464048951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+      <c r="C11">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="E11">
+        <v>4274</v>
+      </c>
+      <c r="F11">
+        <v>4276</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.52923649122807015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(G2:G11)</f>
+        <v>0.55190579784699445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f>STDEV(G2:G11)</f>
+        <v>2.7589413802534095E-2</v>
       </c>
     </row>
   </sheetData>
